--- a/results/tabla_3b_metrics_raw.xlsx
+++ b/results/tabla_3b_metrics_raw.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CI 2.5%</t>
+  </si>
+  <si>
+    <t>CI 97.5%</t>
+  </si>
   <si>
     <t>Area under curve ROC</t>
   </si>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,43 +417,103 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>0.7751937984496124</v>
       </c>
       <c r="C2">
+        <v>0.6594889750886362</v>
+      </c>
+      <c r="D2">
+        <v>0.8908986218105887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>0.5138373873613851</v>
       </c>
-      <c r="D2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>0.7236842105263158</v>
       </c>
-      <c r="E2">
+      <c r="C4">
+        <v>0.6095332104715645</v>
+      </c>
+      <c r="D4">
+        <v>0.8378352105810671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>0.2763157894736842</v>
       </c>
-      <c r="F2">
+      <c r="C5">
+        <v>0.1621647894189329</v>
+      </c>
+      <c r="D5">
+        <v>0.3904667895284354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>0.7894736842105263</v>
       </c>
-      <c r="G2">
+      <c r="C6">
+        <v>0.6342619826638031</v>
+      </c>
+      <c r="D6">
+        <v>0.9446853857572496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>0.6976744186046512</v>
       </c>
-      <c r="H2">
+      <c r="C7">
+        <v>0.551092198771218</v>
+      </c>
+      <c r="D7">
+        <v>0.8442566384380844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>0.7407407407407408</v>
+      </c>
+      <c r="C8">
+        <v>0.6091500789875289</v>
+      </c>
+      <c r="D8">
+        <v>0.8723314024939527</v>
       </c>
     </row>
   </sheetData>
